--- a/resources/TestCases/Vois_Assesment_Test_Cases.xlsx
+++ b/resources/TestCases/Vois_Assesment_Test_Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -137,6 +137,66 @@
   </si>
   <si>
     <t>click on Buy Now button</t>
+  </si>
+  <si>
+    <t>Change Language</t>
+  </si>
+  <si>
+    <t>hover on language icon</t>
+  </si>
+  <si>
+    <t>click on language icon</t>
+  </si>
+  <si>
+    <t>select the desired language</t>
+  </si>
+  <si>
+    <t>check that page content will display according to the selected language</t>
+  </si>
+  <si>
+    <t>click on cancel icon from language page</t>
+  </si>
+  <si>
+    <t>click on sign href link from home page</t>
+  </si>
+  <si>
+    <t>Enter registered email</t>
+  </si>
+  <si>
+    <t>Enter unregistered email</t>
+  </si>
+  <si>
+    <t>Enter invalid mobile number</t>
+  </si>
+  <si>
+    <t>Enter mobile number that doesn't exist in the country region</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>Enter mobile number without zero at the beginning</t>
+  </si>
+  <si>
+    <t>click on continue button</t>
+  </si>
+  <si>
+    <t>Sign in Page</t>
+  </si>
+  <si>
+    <t>click on Need help hyperlink</t>
+  </si>
+  <si>
+    <t>click on Forget your password? Hyperlink</t>
+  </si>
+  <si>
+    <t>click on Other issues with Sign-In huperlink</t>
+  </si>
+  <si>
+    <t>click on Shop on Amazon Business huperlink</t>
+  </si>
+  <si>
+    <t>click on Create your Amazon Account button</t>
   </si>
 </sst>
 </file>
@@ -549,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,233 +648,231 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
+      <c r="B3" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>26</v>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +880,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +892,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,7 +901,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,16 +910,195 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B21"/>
     <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B32:B40"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
